--- a/data/analysis/temporal_analysis/museum_activity_groups_var1_governance_simpl.xlsx
+++ b/data/analysis/temporal_analysis/museum_activity_groups_var1_governance_simpl.xlsx
@@ -1,43 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+  <si>
+    <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_facebook</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>q25</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>q75</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>active_mus_n</t>
+  </si>
+  <si>
+    <t>active_mus_pc</t>
+  </si>
+  <si>
+    <t>active_mus_pc_z</t>
+  </si>
+  <si>
+    <t>governance_simpl</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,37 +108,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -84,83 +127,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -448,461 +424,397 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>msg_count_twitter</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>msg_count_facebook</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>q25</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>q75</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>active_mus_n</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>active_mus_pc</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>active_mus_pc_z</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>q25</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>q75</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>active_mus_n</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>active_mus_pc</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>active_mus_pc_z</t>
-        </is>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>governance_simpl</t>
-        </is>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>government</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>2524.8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>5160.5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>689</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2452.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>69234</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>795</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>577</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>72.59999999999999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>0.4</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>707</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>1457.9</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>856.5</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>13584</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>795</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>381</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>47.9</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>independent</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>1327.8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4855.1</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>87</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>828</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>75337</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>2397</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>1519</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>63.4</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>-0.2</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>348.9</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>1586.4</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>316</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>37660</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>2397</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>800</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>33.4</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>university</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
         <v>3944.8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>7505.5</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>398.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1917</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4368.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>60677</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>92</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>79</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>85.90000000000001</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>1.1</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>623.5</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>823.9</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>413</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>947.5</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>5435</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>92</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>54</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>58.7</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>1.2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
         <v>1105.7</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3898.1</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>210.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>26305</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>55</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>24</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>43.6</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>-1.3</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>215.1</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>679.1</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>76</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>4440</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>55</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>14</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>25.5</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>-1.1</v>
       </c>
     </row>
@@ -911,6 +823,6 @@
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="M1:W1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/analysis/temporal_analysis/museum_activity_groups_var1_governance_simpl.xlsx
+++ b/data/analysis/temporal_analysis/museum_activity_groups_var1_governance_simpl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>msg_count_twitter</t>
   </si>
@@ -22,6 +22,9 @@
     <t>msg_count_facebook</t>
   </si>
   <si>
+    <t>sum</t>
+  </si>
+  <si>
     <t>mean</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>msg_per_mus</t>
   </si>
   <si>
     <t>active_mus_n</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -446,11 +452,11 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -459,8 +465,12 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:27">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -496,332 +506,392 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Z2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>2007246</v>
+      </c>
+      <c r="C4">
+        <v>2524.8</v>
+      </c>
+      <c r="D4">
+        <v>5160.5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>689</v>
+      </c>
+      <c r="H4">
+        <v>2452.5</v>
+      </c>
+      <c r="I4">
+        <v>69234</v>
+      </c>
+      <c r="J4">
+        <v>795</v>
+      </c>
+      <c r="K4">
+        <v>2524.8</v>
+      </c>
+      <c r="L4">
+        <v>577</v>
+      </c>
+      <c r="M4">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.4</v>
+      </c>
+      <c r="O4">
+        <v>562082</v>
+      </c>
+      <c r="P4">
+        <v>707</v>
+      </c>
+      <c r="Q4">
+        <v>1457.9</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>856.5</v>
+      </c>
+      <c r="V4">
+        <v>13584</v>
+      </c>
+      <c r="W4">
+        <v>795</v>
+      </c>
+      <c r="X4">
+        <v>707</v>
+      </c>
+      <c r="Y4">
+        <v>381</v>
+      </c>
+      <c r="Z4">
+        <v>47.9</v>
+      </c>
+      <c r="AA4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>3182646</v>
+      </c>
+      <c r="C5">
+        <v>1327.8</v>
+      </c>
+      <c r="D5">
+        <v>4855.1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>87</v>
+      </c>
+      <c r="H5">
+        <v>828</v>
+      </c>
+      <c r="I5">
+        <v>75337</v>
+      </c>
+      <c r="J5">
+        <v>2397</v>
+      </c>
+      <c r="K5">
+        <v>1327.8</v>
+      </c>
+      <c r="L5">
+        <v>1519</v>
+      </c>
+      <c r="M5">
+        <v>63.4</v>
+      </c>
+      <c r="N5">
+        <v>-0.2</v>
+      </c>
+      <c r="O5">
+        <v>836314</v>
+      </c>
+      <c r="P5">
+        <v>348.9</v>
+      </c>
+      <c r="Q5">
+        <v>1586.4</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>316</v>
+      </c>
+      <c r="V5">
+        <v>37660</v>
+      </c>
+      <c r="W5">
+        <v>2397</v>
+      </c>
+      <c r="X5">
+        <v>348.9</v>
+      </c>
+      <c r="Y5">
+        <v>800</v>
+      </c>
+      <c r="Z5">
+        <v>33.4</v>
+      </c>
+      <c r="AA5">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>362924</v>
+      </c>
+      <c r="C6">
+        <v>3944.8</v>
+      </c>
+      <c r="D6">
+        <v>7505.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>398.5</v>
+      </c>
+      <c r="G6">
+        <v>1917</v>
+      </c>
+      <c r="H6">
+        <v>4368.5</v>
+      </c>
+      <c r="I6">
+        <v>60677</v>
+      </c>
+      <c r="J6">
+        <v>92</v>
+      </c>
+      <c r="K6">
+        <v>3944.8</v>
+      </c>
+      <c r="L6">
+        <v>79</v>
+      </c>
+      <c r="M6">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="N6">
+        <v>1.1</v>
+      </c>
+      <c r="O6">
+        <v>57365</v>
+      </c>
+      <c r="P6">
+        <v>623.5</v>
+      </c>
+      <c r="Q6">
+        <v>823.9</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>413</v>
+      </c>
+      <c r="U6">
+        <v>947.5</v>
+      </c>
+      <c r="V6">
+        <v>5435</v>
+      </c>
+      <c r="W6">
+        <v>92</v>
+      </c>
+      <c r="X6">
+        <v>623.5</v>
+      </c>
+      <c r="Y6">
+        <v>54</v>
+      </c>
+      <c r="Z6">
+        <v>58.7</v>
+      </c>
+      <c r="AA6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>60811</v>
+      </c>
+      <c r="C7">
+        <v>1105.7</v>
+      </c>
+      <c r="D7">
+        <v>3898.1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>210.5</v>
+      </c>
+      <c r="I7">
+        <v>26305</v>
+      </c>
+      <c r="J7">
+        <v>55</v>
+      </c>
+      <c r="K7">
+        <v>1105.7</v>
+      </c>
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>43.6</v>
+      </c>
+      <c r="N7">
+        <v>-1.3</v>
+      </c>
+      <c r="O7">
+        <v>11831</v>
+      </c>
+      <c r="P7">
+        <v>215.1</v>
+      </c>
+      <c r="Q7">
+        <v>679.1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>76</v>
+      </c>
+      <c r="V7">
+        <v>4440</v>
+      </c>
+      <c r="W7">
+        <v>55</v>
+      </c>
+      <c r="X7">
+        <v>215.1</v>
+      </c>
+      <c r="Y7">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>2524.8</v>
-      </c>
-      <c r="C4">
-        <v>5160.5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>689</v>
-      </c>
-      <c r="G4">
-        <v>2452.5</v>
-      </c>
-      <c r="H4">
-        <v>69234</v>
-      </c>
-      <c r="I4">
-        <v>795</v>
-      </c>
-      <c r="J4">
-        <v>577</v>
-      </c>
-      <c r="K4">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="L4">
-        <v>0.4</v>
-      </c>
-      <c r="M4">
-        <v>707</v>
-      </c>
-      <c r="N4">
-        <v>1457.9</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>856.5</v>
-      </c>
-      <c r="S4">
-        <v>13584</v>
-      </c>
-      <c r="T4">
-        <v>795</v>
-      </c>
-      <c r="U4">
-        <v>381</v>
-      </c>
-      <c r="V4">
-        <v>47.9</v>
-      </c>
-      <c r="W4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>1327.8</v>
-      </c>
-      <c r="C5">
-        <v>4855.1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>87</v>
-      </c>
-      <c r="G5">
-        <v>828</v>
-      </c>
-      <c r="H5">
-        <v>75337</v>
-      </c>
-      <c r="I5">
-        <v>2397</v>
-      </c>
-      <c r="J5">
-        <v>1519</v>
-      </c>
-      <c r="K5">
-        <v>63.4</v>
-      </c>
-      <c r="L5">
-        <v>-0.2</v>
-      </c>
-      <c r="M5">
-        <v>348.9</v>
-      </c>
-      <c r="N5">
-        <v>1586.4</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>316</v>
-      </c>
-      <c r="S5">
-        <v>37660</v>
-      </c>
-      <c r="T5">
-        <v>2397</v>
-      </c>
-      <c r="U5">
-        <v>800</v>
-      </c>
-      <c r="V5">
-        <v>33.4</v>
-      </c>
-      <c r="W5">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>3944.8</v>
-      </c>
-      <c r="C6">
-        <v>7505.5</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>398.5</v>
-      </c>
-      <c r="F6">
-        <v>1917</v>
-      </c>
-      <c r="G6">
-        <v>4368.5</v>
-      </c>
-      <c r="H6">
-        <v>60677</v>
-      </c>
-      <c r="I6">
-        <v>92</v>
-      </c>
-      <c r="J6">
-        <v>79</v>
-      </c>
-      <c r="K6">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="L6">
-        <v>1.1</v>
-      </c>
-      <c r="M6">
-        <v>623.5</v>
-      </c>
-      <c r="N6">
-        <v>823.9</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>413</v>
-      </c>
-      <c r="R6">
-        <v>947.5</v>
-      </c>
-      <c r="S6">
-        <v>5435</v>
-      </c>
-      <c r="T6">
-        <v>92</v>
-      </c>
-      <c r="U6">
-        <v>54</v>
-      </c>
-      <c r="V6">
-        <v>58.7</v>
-      </c>
-      <c r="W6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>1105.7</v>
-      </c>
-      <c r="C7">
-        <v>3898.1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>210.5</v>
-      </c>
-      <c r="H7">
-        <v>26305</v>
-      </c>
-      <c r="I7">
-        <v>55</v>
-      </c>
-      <c r="J7">
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <v>43.6</v>
-      </c>
-      <c r="L7">
-        <v>-1.3</v>
-      </c>
-      <c r="M7">
-        <v>215.1</v>
-      </c>
-      <c r="N7">
-        <v>679.1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>76</v>
-      </c>
-      <c r="S7">
-        <v>4440</v>
-      </c>
-      <c r="T7">
-        <v>55</v>
-      </c>
-      <c r="U7">
-        <v>14</v>
-      </c>
-      <c r="V7">
+      <c r="Z7">
         <v>25.5</v>
       </c>
-      <c r="W7">
+      <c r="AA7">
         <v>-1.1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="O1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
